--- a/AE_Aero/Production/Prix_carbone_plaques.xlsx
+++ b/AE_Aero/Production/Prix_carbone_plaques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calixthe\Desktop\EPSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AE_Aero\Production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{47FAC505-BE54-4E6B-8EBC-9EDA2C82C770}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507664FC-09AE-46F4-B38F-1712BF43ED06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{B53238B5-6371-43C1-A09A-0CAC2C318517}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B53238B5-6371-43C1-A09A-0CAC2C318517}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Firewall</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>0,5m2</t>
+  </si>
+  <si>
+    <t>Pmma</t>
+  </si>
+  <si>
+    <t>0€ (fablab)</t>
   </si>
 </sst>
 </file>
@@ -485,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8EC314-6DBE-4AB0-8861-DA2F784F6FF0}">
-  <dimension ref="B2:U7"/>
+  <dimension ref="B2:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,6 +635,17 @@
         <v>190</v>
       </c>
     </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>1180</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G2:J3"/>
